--- a/その他/37_開発体験シート.xlsx
+++ b/その他/37_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64927FF-F59D-421E-AA98-4161CD7E19DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15D78EC-B997-4517-BEB1-D0B8BB6F7E28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -545,7 +545,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装で変更箇所が出ることが多い</t>
+    <t>役割分担がしやすい。</t>
+    <rPh sb="0" eb="4">
+      <t>ヤクワリブンタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時点では技術的なことは詳細に書かない。</t>
+    <rPh sb="2" eb="4">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCEの基に考えるとクラスを作成しやすい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装で変更箇所が出ることが多い。</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
     </rPh>
@@ -564,14 +591,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>役割分担がしやすい</t>
-    <rPh sb="0" eb="4">
-      <t>ヤクワリブンタン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト仕様書の不備が見つかることがある</t>
+    <t>型の違いなどで苦労した。</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト仕様書の不備が見つかることがある。</t>
     <rPh sb="3" eb="6">
       <t>シヨウショ</t>
     </rPh>
@@ -584,7 +617,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>提出する前に正しい文章か確認する必要がある</t>
+    <t>システム仕様書の不備が見つかることがある。</t>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出する前に正しい文章か確認する必要がある。</t>
     <rPh sb="0" eb="2">
       <t>テイシュツ</t>
     </rPh>
@@ -602,6 +648,95 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間を意識し、かつ分かりやすい説明が必要。</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数の割り振りは経験が少なかったため難しかった。</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムズカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記録することで遅れていることの意識が高まる。</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リカバリ案はあらかじめ何個か考えておくべき。</t>
+    <rPh sb="4" eb="5">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナンコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次を意識した振り返りが重要。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1797,10 +1932,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1855,7 +1990,9 @@
       <c r="F9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -1876,13 +2013,15 @@
       <c r="F10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1899,12 +2038,16 @@
       <c r="F11" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I11" s="13"/>
+        <v>●</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="62" t="s">
@@ -1922,12 +2065,16 @@
       <c r="F12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="69"/>
@@ -1943,13 +2090,15 @@
       <c r="F13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -1985,13 +2134,15 @@
       <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2008,13 +2159,15 @@
       <c r="F16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2050,7 +2203,9 @@
       <c r="F18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2069,12 +2224,16 @@
       <c r="F19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="62" t="s">
@@ -2092,7 +2251,9 @@
       <c r="F20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2111,12 +2272,16 @@
       <c r="F21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="60"/>
@@ -2132,7 +2297,9 @@
       <c r="F22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2151,13 +2318,15 @@
       <c r="F23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2174,7 +2343,9 @@
       <c r="F24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2193,12 +2364,16 @@
       <c r="F25" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="59" t="s">
@@ -2216,7 +2391,9 @@
       <c r="F26" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2235,13 +2412,15 @@
       <c r="F27" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2256,12 +2435,16 @@
       <c r="F28" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="54" t="s">
@@ -2279,7 +2462,9 @@
       <c r="F29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2298,12 +2483,16 @@
       <c r="F30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
-      </c>
-      <c r="I30" s="9"/>
+        <v>●</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="55"/>
@@ -2317,10 +2506,12 @@
       <c r="F31" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I31" s="9"/>
     </row>
@@ -2338,12 +2529,16 @@
       <c r="F32" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="55"/>
@@ -2357,7 +2552,9 @@
       <c r="F33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2376,12 +2573,16 @@
       <c r="F34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
@@ -2397,12 +2598,16 @@
       <c r="F35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
@@ -2416,10 +2621,12 @@
       <c r="F36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2435,10 +2642,12 @@
       <c r="F37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I37" s="13"/>
     </row>
